--- a/WHO-DATA-SETS/ExcelDataSets/20200130-sitrep-10-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200130-sitrep-10-ncov.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0BE6F7-941A-4215-B8F6-EA6FDEA8E2F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A358D82-D080-43F2-99C4-F14F48B7BAA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -371,10 +371,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -480,12 +476,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -514,14 +507,8 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -875,256 +862,236 @@
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="141" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="5.25" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="24.2" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="24.2" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C2" s="6">
         <v>7736</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="24" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="33" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="24" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="24" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" ht="24" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="24" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" ht="24" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="24.6" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="24" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" ht="24" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" ht="24" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" ht="24" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="24" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="24" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="9">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="24" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="24" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="9">
         <v>4</v>
       </c>
-      <c r="C5" s="10">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="33" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="24" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10">
-        <v>7</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="10">
-        <v>7</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="10">
-        <v>14</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="24" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" ht="24" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="10">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" ht="24" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="10">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="10">
-        <v>3</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="10">
-        <v>5</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="10">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="10">
-        <v>4</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="10">
-        <v>4</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" ht="24.2" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="24.2" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C21" s="9">
         <v>7818</v>
       </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" ht="21.75" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="D21" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A4:A12"/>
+  <mergeCells count="4">
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WHO-DATA-SETS/ExcelDataSets/20200130-sitrep-10-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200130-sitrep-10-ncov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A358D82-D080-43F2-99C4-F14F48B7BAA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF1CF1C-DCA8-4C1D-98A3-0D6D6C97936F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -480,23 +480,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -504,11 +492,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,7 +851,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -863,228 +863,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="24.2" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>7736</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="9">
         <v>11</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="33" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="9">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="9">
         <v>10</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="9">
         <v>7</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="9">
         <v>7</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="9">
         <v>14</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="24" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="24" customHeight="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="9">
         <v>5</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="24" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9">
         <v>3</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="24" customHeight="1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="9">
         <v>5</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="24" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="24" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="9">
         <v>4</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="24" customHeight="1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="9">
         <v>4</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="24.2" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="9">
         <v>7818</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
